--- a/test/Client_time.xlsx
+++ b/test/Client_time.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Start time</t>
   </si>
@@ -22,64 +22,82 @@
     <t>End time</t>
   </si>
   <si>
-    <t>752954</t>
-  </si>
-  <si>
-    <t>951147</t>
-  </si>
-  <si>
-    <t>139591</t>
-  </si>
-  <si>
-    <t>318911</t>
-  </si>
-  <si>
-    <t>511059</t>
-  </si>
-  <si>
-    <t>688249</t>
-  </si>
-  <si>
-    <t>867846</t>
-  </si>
-  <si>
-    <t>41595</t>
-  </si>
-  <si>
-    <t>215447</t>
-  </si>
-  <si>
-    <t>389741</t>
-  </si>
-  <si>
-    <t>575001</t>
-  </si>
-  <si>
-    <t>750400</t>
-  </si>
-  <si>
-    <t>952333</t>
-  </si>
-  <si>
-    <t>131533</t>
-  </si>
-  <si>
-    <t>320035</t>
-  </si>
-  <si>
-    <t>507272</t>
-  </si>
-  <si>
-    <t>685629</t>
-  </si>
-  <si>
-    <t>873093</t>
-  </si>
-  <si>
-    <t>55322</t>
-  </si>
-  <si>
-    <t>234663</t>
+    <t>536.028</t>
+  </si>
+  <si>
+    <t>868.517</t>
+  </si>
+  <si>
+    <t>200.802</t>
+  </si>
+  <si>
+    <t>533.081</t>
+  </si>
+  <si>
+    <t>865.664</t>
+  </si>
+  <si>
+    <t>197.882</t>
+  </si>
+  <si>
+    <t>539.961</t>
+  </si>
+  <si>
+    <t>872.12</t>
+  </si>
+  <si>
+    <t>210.645</t>
+  </si>
+  <si>
+    <t>555.999</t>
+  </si>
+  <si>
+    <t>888.095</t>
+  </si>
+  <si>
+    <t>231.451</t>
+  </si>
+  <si>
+    <t>572.397</t>
+  </si>
+  <si>
+    <t>905.073</t>
+  </si>
+  <si>
+    <t>236.41</t>
+  </si>
+  <si>
+    <t>568.415</t>
+  </si>
+  <si>
+    <t>900.001</t>
+  </si>
+  <si>
+    <t>236.544</t>
+  </si>
+  <si>
+    <t>570.658</t>
+  </si>
+  <si>
+    <t>903.492</t>
+  </si>
+  <si>
+    <t>236.004</t>
+  </si>
+  <si>
+    <t>568.178</t>
+  </si>
+  <si>
+    <t>899.697</t>
+  </si>
+  <si>
+    <t>232.095</t>
+  </si>
+  <si>
+    <t>563.869</t>
+  </si>
+  <si>
+    <t>895.667</t>
   </si>
 </sst>
 </file>
@@ -411,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -581,6 +599,54 @@
       <c r="A21" t="s">
         <v>21</v>
       </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
